--- a/Testing/IMU data/pendulum.xlsx
+++ b/Testing/IMU data/pendulum.xlsx
@@ -1,30 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9510 i9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tris/Documents/2022UCT/2nd sem/3097/SHARC_buoy_data_transmission/Testing/IMU data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2775E2F8-79E6-4BE0-9518-6891806AEE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E525F4C-52C6-1F46-8454-FCC8233A876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="18180" windowHeight="11664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pendulum" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">pendulum!$A$2:$A$123</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">pendulum!$B$2:$B$123</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">pendulum!$A$2:$A$123</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">pendulum!$C$2:$C$123</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">pendulum!$A$2:$A$123</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">pendulum!$A$2:$A$123</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">pendulum!$A$2:$A$123</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">pendulum!$A$2:$A$123</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">pendulum!$A$2:$A$123</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">pendulum!$A$2:$A$123</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">pendulum!$A$2:$A$123</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,7 +588,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -596,8 +619,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-ZA"/>
-              <a:t>X</a:t>
+              <a:rPr lang="en-GB"/>
+              <a:t> X</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -654,10 +677,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>pendulum!$A$1:$A$235</c:f>
+              <c:f>pendulum!$A$2:$A$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="122"/>
                 <c:pt idx="0">
                   <c:v>0.21</c:v>
                 </c:pt>
@@ -1023,353 +1046,14 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>-0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0954-4CCC-853F-87653EC7A5FF}"/>
+              <c16:uniqueId val="{00000000-BC9F-F74A-B9DA-1DF7DDA3ABF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1382,11 +1066,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1701768544"/>
-        <c:axId val="1701769376"/>
+        <c:axId val="144692816"/>
+        <c:axId val="144476288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1701768544"/>
+        <c:axId val="144692816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1701769376"/>
+        <c:crossAx val="144476288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1437,7 +1121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1701769376"/>
+        <c:axId val="144476288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1701768544"/>
+        <c:crossAx val="144692816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1540,7 +1224,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1571,7 +1255,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-ZA"/>
+              <a:rPr lang="en-GB"/>
               <a:t>Y</a:t>
             </a:r>
           </a:p>
@@ -1629,10 +1313,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>pendulum!$B$1:$B$235</c:f>
+              <c:f>pendulum!$B$2:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="122"/>
                 <c:pt idx="0">
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
@@ -1998,345 +1682,6 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,7 +1689,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CCF1-49C0-BC93-D7BB5165B1B2}"/>
+              <c16:uniqueId val="{00000000-971D-A449-BC75-883501389FFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2357,11 +1702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1695644768"/>
-        <c:axId val="1695645184"/>
+        <c:axId val="28267680"/>
+        <c:axId val="106180480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1695644768"/>
+        <c:axId val="28267680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,7 +1749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1695645184"/>
+        <c:crossAx val="106180480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2412,7 +1757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1695645184"/>
+        <c:axId val="106180480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +1808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1695644768"/>
+        <c:crossAx val="28267680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2515,7 +1860,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2546,7 +1891,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-ZA"/>
+              <a:rPr lang="en-GB"/>
               <a:t>Z</a:t>
             </a:r>
           </a:p>
@@ -2604,10 +1949,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>pendulum!$C$1:$C$235</c:f>
+              <c:f>pendulum!$C$2:$C$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="122"/>
                 <c:pt idx="0">
                   <c:v>-0.04</c:v>
                 </c:pt>
@@ -2973,345 +2318,6 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-0.04</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-0.04</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>-7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-0.108</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-9.8000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>-0.16</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>-4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>-8.5999999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.11600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>5.6000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>8.5999999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.216</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.376</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.51600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.63600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.66600000000000004</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.75600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3319,7 +2325,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72EB-4D25-B335-E4ECEB8A09DF}"/>
+              <c16:uniqueId val="{00000000-116C-FF49-AC36-8AF776358EC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3332,11 +2338,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1920817232"/>
-        <c:axId val="1920818064"/>
+        <c:axId val="35038464"/>
+        <c:axId val="143151072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1920817232"/>
+        <c:axId val="35038464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +2385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1920818064"/>
+        <c:crossAx val="143151072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3387,7 +2393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1920818064"/>
+        <c:axId val="143151072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3438,7 +2444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1920817232"/>
+        <c:crossAx val="35038464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3450,6 +2456,1480 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Accelorometer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Pendulum Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>pendulum!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAB3-AD46-91D8-07549299F1F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>pendulum!$B$2:$B$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAB3-AD46-91D8-07549299F1F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>pendulum!$C$2:$C$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BAB3-AD46-91D8-07549299F1F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="148295600"/>
+        <c:axId val="148297248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148295600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148297248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148297248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148295600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3607,6 +4087,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5155,27 +5675,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>201930</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:colOff>5818</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>192198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>506730</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>569429</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082AF973-666C-AC25-06BC-058972C4A5EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298DEBA0-A92A-87C0-C697-3D5881289D26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5196,22 +6232,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>139177</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152175</xdr:rowOff>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>443977</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152175</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>553720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE10B57-AF2F-D13C-C05B-4C9DB06D59E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFBC27B7-72A7-14CF-7245-46ADC48D66BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5232,22 +6268,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>553720</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10773AE8-4DD6-7ECC-6499-216112FE1909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8338DBAA-F65C-2F63-E396-ED6D68C5CD93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5260,6 +6296,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>167856</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45937</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B46168B-DB22-8C3B-941F-B25D21BF3472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5564,698 +6636,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C235"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="111" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0.21</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.79</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>0.22</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0.45</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>-0.41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>0.02</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>0.08</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-0.53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>-0.15</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.01</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>-0.17</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.13</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>-0.02</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>0.48</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>0.05</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.67</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.72</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>-0.13</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0.44</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>-0.17</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>-0.02</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>0.18</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>0.26</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>0.05</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0.52</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>0.04</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>0.5</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>-0.61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>0.19</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>0.35</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>-0.13</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>0.11</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>-0.06</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.32</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>0.02</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>0.44</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>0.05</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0.54</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>0.1</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>0.6</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>-0.01</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>0.44</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>0.06</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>0.34</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>0.03</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>0.26</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>0.06</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>0.31</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>0.23</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>0.46</v>
-      </c>
-      <c r="C26">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B27">
-        <v>0.49</v>
       </c>
       <c r="C27">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B28">
+        <v>0.49</v>
+      </c>
+      <c r="C28">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>0.09</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>0.47</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.05</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>0.34</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>0</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>0.3</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>-0.02</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>0.35</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>-0.01</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>0.45</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>0.03</v>
-      </c>
-      <c r="B33">
-        <v>0.52</v>
-      </c>
-      <c r="C33">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.03</v>
       </c>
       <c r="B34">
+        <v>0.52</v>
+      </c>
+      <c r="C34">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.03</v>
+      </c>
+      <c r="B35">
         <v>0.53</v>
-      </c>
-      <c r="C34">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>0.05</v>
-      </c>
-      <c r="B35">
-        <v>0.45</v>
       </c>
       <c r="C35">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.05</v>
       </c>
       <c r="B36">
+        <v>0.45</v>
+      </c>
+      <c r="C36">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.05</v>
+      </c>
+      <c r="B37">
         <v>0.37</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>0.06</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>0.33</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>0.1</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>0.37</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>0.16</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>0.43</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>0.15</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>0.5</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>0.1</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>0.44</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>0.05</v>
-      </c>
-      <c r="B42">
-        <v>0.38</v>
-      </c>
-      <c r="C42">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>0.04</v>
       </c>
       <c r="B43">
         <v>0.38</v>
       </c>
       <c r="C43">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>-0.02</v>
+        <v>0.04</v>
       </c>
       <c r="B44">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="C44">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
+        <v>-0.02</v>
+      </c>
+      <c r="B45">
+        <v>0.4</v>
+      </c>
+      <c r="C45">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>-0.01</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>0.48</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>0.03</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>0.49</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>0.05</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>0.51</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B48">
-        <v>0.5</v>
-      </c>
-      <c r="C48">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B49">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="C49">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B50">
+        <v>0.36</v>
+      </c>
+      <c r="C50">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B51">
         <v>0.35</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>-0.27</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>0.1</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>0.39</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>0.15</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>0.47</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>0.13</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>0.46</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>0.09</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>0.41</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>0.06</v>
-      </c>
-      <c r="B55">
-        <v>0.4</v>
-      </c>
-      <c r="C55">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>0.03</v>
       </c>
       <c r="B56">
         <v>0.4</v>
       </c>
       <c r="C56">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.03</v>
+      </c>
+      <c r="B57">
+        <v>0.4</v>
+      </c>
+      <c r="C57">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>-0.02</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>0.39</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>0</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>0.48</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>0.03</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>0.47</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>0.06</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>0.49</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>0.43</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>0.08</v>
-      </c>
-      <c r="B62">
-        <v>0.4</v>
-      </c>
-      <c r="C62">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.08</v>
       </c>
@@ -6263,296 +7335,296 @@
         <v>0.4</v>
       </c>
       <c r="C63">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0.08</v>
+      </c>
+      <c r="B64">
+        <v>0.4</v>
+      </c>
+      <c r="C64">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>0.1</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>0.41</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>0.12</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>0.47</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>0.11</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>0.43</v>
-      </c>
-      <c r="C66">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>0.08</v>
-      </c>
-      <c r="B67">
-        <v>0.44</v>
       </c>
       <c r="C67">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
+        <v>0.08</v>
+      </c>
+      <c r="B68">
+        <v>0.44</v>
+      </c>
+      <c r="C68">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>0.05</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>0.47</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>0.02</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>0.4</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>0.01</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>0.45</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>0.02</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>0.48</v>
-      </c>
-      <c r="C71">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>0.06</v>
-      </c>
-      <c r="B72">
-        <v>0.47</v>
       </c>
       <c r="C72">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.06</v>
       </c>
       <c r="B73">
+        <v>0.47</v>
+      </c>
+      <c r="C73">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>0.06</v>
+      </c>
+      <c r="B74">
         <v>0.48</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>0.44</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>0.08</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>0.43</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>0.09</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>0.42</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>0.1</v>
-      </c>
-      <c r="B77">
-        <v>0.45</v>
-      </c>
-      <c r="C77">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.1</v>
       </c>
       <c r="B78">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="C78">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="B79">
         <v>0.43</v>
       </c>
       <c r="C79">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>0.09</v>
+      </c>
+      <c r="B80">
+        <v>0.43</v>
+      </c>
+      <c r="C80">
         <v>-0.22</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>0.46</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>0.05</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>0.44</v>
-      </c>
-      <c r="C81">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>0.03</v>
-      </c>
-      <c r="B82">
-        <v>0.47</v>
       </c>
       <c r="C82">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="B83">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="C83">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0.44</v>
+      </c>
+      <c r="C84">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>0.03</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>0.49</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>0.04</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>0.46</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>0.45</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>0.08</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>0.47</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>-0.22</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>0.09</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>0.43</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>0.1</v>
-      </c>
-      <c r="B89">
-        <v>0.45</v>
-      </c>
-      <c r="C89">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.1</v>
       </c>
@@ -6563,73 +7635,73 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="B91">
         <v>0.45</v>
       </c>
       <c r="C91">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>0.08</v>
+      </c>
+      <c r="B92">
+        <v>0.45</v>
+      </c>
+      <c r="C92">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>0.42</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>0.08</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>0.45</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>0.06</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>0.48</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>0.03</v>
-      </c>
-      <c r="B95">
-        <v>0.42</v>
-      </c>
-      <c r="C95">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.03</v>
       </c>
       <c r="B96">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="C96">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.03</v>
       </c>
@@ -6637,76 +7709,76 @@
         <v>0.47</v>
       </c>
       <c r="C97">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>0.03</v>
+      </c>
+      <c r="B98">
+        <v>0.47</v>
+      </c>
+      <c r="C98">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>0.06</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>0.46</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>0.44</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>0.08</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>0.45</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>0.1</v>
-      </c>
-      <c r="B101">
-        <v>0.43</v>
-      </c>
-      <c r="C101">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>0.09</v>
       </c>
       <c r="B102">
         <v>0.43</v>
       </c>
       <c r="C102">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.09</v>
       </c>
       <c r="B103">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="C103">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.09</v>
       </c>
@@ -6717,42 +7789,42 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="B105">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="C105">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B106">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="C106">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B107">
         <v>0.46</v>
       </c>
       <c r="C107">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="B108">
         <v>0.46</v>
@@ -6761,1401 +7833,169 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.04</v>
       </c>
       <c r="B109">
+        <v>0.46</v>
+      </c>
+      <c r="C109">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>0.04</v>
+      </c>
+      <c r="B110">
         <v>0.5</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>0.05</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <v>0.41</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B111">
-        <v>0.48</v>
-      </c>
-      <c r="C111">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B112">
+        <v>0.48</v>
+      </c>
+      <c r="C112">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B113">
         <v>0.46</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>0.08</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>0.44</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>0.45</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>0.1</v>
-      </c>
-      <c r="B115">
-        <v>0.44</v>
-      </c>
-      <c r="C115">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.1</v>
       </c>
       <c r="B116">
+        <v>0.44</v>
+      </c>
+      <c r="C116">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>0.1</v>
+      </c>
+      <c r="B117">
         <v>0.46</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>0.09</v>
-      </c>
-      <c r="B117">
-        <v>0.44</v>
-      </c>
-      <c r="C117">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.09</v>
       </c>
       <c r="B118">
+        <v>0.44</v>
+      </c>
+      <c r="C118">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>0.09</v>
+      </c>
+      <c r="B119">
         <v>0.47</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>0.06</v>
-      </c>
-      <c r="B119">
-        <v>0.46</v>
-      </c>
-      <c r="C119">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.06</v>
       </c>
       <c r="B120">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="C120">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
+        <v>0.06</v>
+      </c>
+      <c r="B121">
+        <v>0.44</v>
+      </c>
+      <c r="C121">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
         <v>0.1</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>0.53</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
         <v>0.08</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <v>0.46</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <v>-0.03</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>0.09</v>
-      </c>
-      <c r="B123">
-        <v>0.48</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>-0.03</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>0.02</v>
-      </c>
-      <c r="B125">
-        <v>0.06</v>
-      </c>
-      <c r="C125">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>0.01</v>
-      </c>
-      <c r="B126">
-        <v>0.1</v>
-      </c>
-      <c r="C126">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C127">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>0.03</v>
-      </c>
-      <c r="B128">
-        <v>0.03</v>
-      </c>
-      <c r="C128">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>0.01</v>
-      </c>
-      <c r="B129">
-        <v>-0.02</v>
-      </c>
-      <c r="C129">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>0.02</v>
-      </c>
-      <c r="B130">
-        <v>-0.06</v>
-      </c>
-      <c r="C130">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>0.03</v>
-      </c>
-      <c r="B131">
-        <v>-0.01</v>
-      </c>
-      <c r="C131">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>0.06</v>
-      </c>
-      <c r="B132">
-        <v>0.05</v>
-      </c>
-      <c r="C132">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B133">
-        <v>0.05</v>
-      </c>
-      <c r="C133">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>0.03</v>
-      </c>
-      <c r="B134">
-        <v>0.02</v>
-      </c>
-      <c r="C134">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>-0.01</v>
-      </c>
-      <c r="B135">
-        <v>-0.05</v>
-      </c>
-      <c r="C135">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>-0.01</v>
-      </c>
-      <c r="B136">
-        <v>-0.03</v>
-      </c>
-      <c r="C136">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>-0.01</v>
-      </c>
-      <c r="B137">
-        <v>0.04</v>
-      </c>
-      <c r="C137">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>0.01</v>
-      </c>
-      <c r="B138">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C138">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>0.01</v>
-      </c>
-      <c r="B139">
-        <v>0.08</v>
-      </c>
-      <c r="C139">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>0.02</v>
-      </c>
-      <c r="B140">
-        <v>0.05</v>
-      </c>
-      <c r="C140">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>0.02</v>
-      </c>
-      <c r="B141">
-        <v>0.02</v>
-      </c>
-      <c r="C141">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>0.01</v>
-      </c>
-      <c r="B142">
-        <v>-0.02</v>
-      </c>
-      <c r="C142">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>0.02</v>
-      </c>
-      <c r="B143">
-        <v>-0.02</v>
-      </c>
-      <c r="C143">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>0.04</v>
-      </c>
-      <c r="B144">
-        <v>0.05</v>
-      </c>
-      <c r="C144">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>0.05</v>
-      </c>
-      <c r="B145">
-        <v>0.05</v>
-      </c>
-      <c r="C145">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>0.04</v>
-      </c>
-      <c r="B146">
-        <v>0.02</v>
-      </c>
-      <c r="C146">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>0.01</v>
-      </c>
-      <c r="B147">
-        <v>-0.01</v>
-      </c>
-      <c r="C147">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>0</v>
-      </c>
-      <c r="B148">
-        <v>-0.01</v>
-      </c>
-      <c r="C148">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>-0.01</v>
-      </c>
-      <c r="B149">
-        <v>0.01</v>
-      </c>
-      <c r="C149">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>0</v>
-      </c>
-      <c r="B150">
-        <v>0.06</v>
-      </c>
-      <c r="C150">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>0</v>
-      </c>
-      <c r="B151">
-        <v>0.06</v>
-      </c>
-      <c r="C151">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>0.01</v>
-      </c>
-      <c r="B152">
-        <v>0.08</v>
-      </c>
-      <c r="C152">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>0.03</v>
-      </c>
-      <c r="B153">
-        <v>0.06</v>
-      </c>
-      <c r="C153">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>0.02</v>
-      </c>
-      <c r="B154">
-        <v>-0.02</v>
-      </c>
-      <c r="C154">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>0.01</v>
-      </c>
-      <c r="B155">
-        <v>-0.02</v>
-      </c>
-      <c r="C155">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>0.02</v>
-      </c>
-      <c r="B156">
-        <v>0.02</v>
-      </c>
-      <c r="C156">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>0.04</v>
-      </c>
-      <c r="B157">
-        <v>0.04</v>
-      </c>
-      <c r="C157">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>0.05</v>
-      </c>
-      <c r="B158">
-        <v>0.04</v>
-      </c>
-      <c r="C158">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>0.01</v>
-      </c>
-      <c r="B159">
-        <v>0.02</v>
-      </c>
-      <c r="C159">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>0</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>0</v>
-      </c>
-      <c r="B161">
-        <v>-0.01</v>
-      </c>
-      <c r="C161">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>0</v>
-      </c>
-      <c r="B162">
-        <v>0.06</v>
-      </c>
-      <c r="C162">
-        <v>-7.8E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>0</v>
-      </c>
-      <c r="B163">
-        <v>0.08</v>
-      </c>
-      <c r="C163">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>0.01</v>
-      </c>
-      <c r="B164">
-        <v>0.05</v>
-      </c>
-      <c r="C164">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>0.02</v>
-      </c>
-      <c r="B165">
-        <v>0.02</v>
-      </c>
-      <c r="C165">
-        <v>-7.8E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>0.03</v>
-      </c>
-      <c r="B166">
-        <v>0.06</v>
-      </c>
-      <c r="C166">
-        <v>-0.108</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>0.02</v>
-      </c>
-      <c r="B167">
-        <v>-0.01</v>
-      </c>
-      <c r="C167">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>0.02</v>
-      </c>
-      <c r="B168">
-        <v>-0.01</v>
-      </c>
-      <c r="C168">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>0.03</v>
-      </c>
-      <c r="B169">
-        <v>0.03</v>
-      </c>
-      <c r="C169">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>0.05</v>
-      </c>
-      <c r="B170">
-        <v>0.03</v>
-      </c>
-      <c r="C170">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>0.02</v>
-      </c>
-      <c r="B171">
-        <v>0.03</v>
-      </c>
-      <c r="C171">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>0</v>
-      </c>
-      <c r="B172">
-        <v>0.01</v>
-      </c>
-      <c r="C172">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>-0.01</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>0</v>
-      </c>
-      <c r="B174">
-        <v>0.04</v>
-      </c>
-      <c r="C174">
-        <v>-7.8E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>0</v>
-      </c>
-      <c r="B175">
-        <v>0.04</v>
-      </c>
-      <c r="C175">
-        <v>-7.8E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>0.01</v>
-      </c>
-      <c r="B176">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C176">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>0.02</v>
-      </c>
-      <c r="B177">
-        <v>0.05</v>
-      </c>
-      <c r="C177">
-        <v>-7.8E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>0.01</v>
-      </c>
-      <c r="B178">
-        <v>0.03</v>
-      </c>
-      <c r="C178">
-        <v>-9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>0.01</v>
-      </c>
-      <c r="B179">
-        <v>-0.02</v>
-      </c>
-      <c r="C179">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>0.02</v>
-      </c>
-      <c r="B180">
-        <v>0.01</v>
-      </c>
-      <c r="C180">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>0.03</v>
-      </c>
-      <c r="B181">
-        <v>0.04</v>
-      </c>
-      <c r="C181">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>0.04</v>
-      </c>
-      <c r="B182">
-        <v>0.04</v>
-      </c>
-      <c r="C182">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>0.04</v>
-      </c>
-      <c r="B183">
-        <v>0.02</v>
-      </c>
-      <c r="C183">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>0.02</v>
-      </c>
-      <c r="B184">
-        <v>0.03</v>
-      </c>
-      <c r="C184">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>0</v>
-      </c>
-      <c r="B185">
-        <v>0.01</v>
-      </c>
-      <c r="C185">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>0.01</v>
-      </c>
-      <c r="B186">
-        <v>0.04</v>
-      </c>
-      <c r="C186">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>0</v>
-      </c>
-      <c r="B187">
-        <v>0.04</v>
-      </c>
-      <c r="C187">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>0.03</v>
-      </c>
-      <c r="B188">
-        <v>0.08</v>
-      </c>
-      <c r="C188">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>0.03</v>
-      </c>
-      <c r="B189">
-        <v>0.05</v>
-      </c>
-      <c r="C189">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>0</v>
-      </c>
-      <c r="B190">
-        <v>0.02</v>
-      </c>
-      <c r="C190">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>0.02</v>
-      </c>
-      <c r="B191">
-        <v>0.01</v>
-      </c>
-      <c r="C191">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>0.02</v>
-      </c>
-      <c r="B192">
-        <v>0.03</v>
-      </c>
-      <c r="C192">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>0.03</v>
-      </c>
-      <c r="B193">
-        <v>0.03</v>
-      </c>
-      <c r="C193">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>0.03</v>
-      </c>
-      <c r="B194">
-        <v>0.03</v>
-      </c>
-      <c r="C194">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>0.04</v>
-      </c>
-      <c r="B195">
-        <v>0.03</v>
-      </c>
-      <c r="C195">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>0.02</v>
-      </c>
-      <c r="B196">
-        <v>0.02</v>
-      </c>
-      <c r="C196">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>0.01</v>
-      </c>
-      <c r="B197">
-        <v>0.03</v>
-      </c>
-      <c r="C197">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>0.01</v>
-      </c>
-      <c r="B198">
-        <v>0.02</v>
-      </c>
-      <c r="C198">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>0</v>
-      </c>
-      <c r="B199">
-        <v>0.04</v>
-      </c>
-      <c r="C199">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>0.01</v>
-      </c>
-      <c r="B200">
-        <v>0.05</v>
-      </c>
-      <c r="C200">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>0.01</v>
-      </c>
-      <c r="B201">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C201">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <v>0.01</v>
-      </c>
-      <c r="B202">
-        <v>0.04</v>
-      </c>
-      <c r="C202">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <v>0.01</v>
-      </c>
-      <c r="B203">
-        <v>0.01</v>
-      </c>
-      <c r="C203">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>0.02</v>
-      </c>
-      <c r="B204">
-        <v>0.08</v>
-      </c>
-      <c r="C204">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>0.02</v>
-      </c>
-      <c r="B205">
-        <v>0.03</v>
-      </c>
-      <c r="C205">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206">
-        <v>0.03</v>
-      </c>
-      <c r="B206">
-        <v>0.02</v>
-      </c>
-      <c r="C206">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>0.04</v>
-      </c>
-      <c r="B207">
-        <v>0.05</v>
-      </c>
-      <c r="C207">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>0.03</v>
-      </c>
-      <c r="B208">
-        <v>0.02</v>
-      </c>
-      <c r="C208">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209">
-        <v>0.03</v>
-      </c>
-      <c r="B209">
-        <v>0.03</v>
-      </c>
-      <c r="C209">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>0.02</v>
-      </c>
-      <c r="B210">
-        <v>0.02</v>
-      </c>
-      <c r="C210">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211">
-        <v>0.01</v>
-      </c>
-      <c r="B211">
-        <v>0.05</v>
-      </c>
-      <c r="C211">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212">
-        <v>0.01</v>
-      </c>
-      <c r="B212">
-        <v>0.04</v>
-      </c>
-      <c r="C212">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213">
-        <v>0.01</v>
-      </c>
-      <c r="B213">
-        <v>0.04</v>
-      </c>
-      <c r="C213">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>0</v>
-      </c>
-      <c r="B214">
-        <v>0.05</v>
-      </c>
-      <c r="C214">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>0.01</v>
-      </c>
-      <c r="B215">
-        <v>0.06</v>
-      </c>
-      <c r="C215">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216">
-        <v>0.02</v>
-      </c>
-      <c r="B216">
-        <v>0.02</v>
-      </c>
-      <c r="C216">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217">
-        <v>0.02</v>
-      </c>
-      <c r="B217">
-        <v>0.03</v>
-      </c>
-      <c r="C217">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218">
-        <v>0.03</v>
-      </c>
-      <c r="B218">
-        <v>0.04</v>
-      </c>
-      <c r="C218">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219">
-        <v>0.03</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-      <c r="C219">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220">
-        <v>0.03</v>
-      </c>
-      <c r="B220">
-        <v>0.05</v>
-      </c>
-      <c r="C220">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221">
-        <v>0.02</v>
-      </c>
-      <c r="B221">
-        <v>0.03</v>
-      </c>
-      <c r="C221">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>0.03</v>
-      </c>
-      <c r="B222">
-        <v>0.02</v>
-      </c>
-      <c r="C222">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223">
-        <v>0.02</v>
-      </c>
-      <c r="B223">
-        <v>0.04</v>
-      </c>
-      <c r="C223">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="B224">
-        <v>-0.03</v>
-      </c>
-      <c r="C224">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225">
-        <v>0.05</v>
-      </c>
-      <c r="B225">
-        <v>0.09</v>
-      </c>
-      <c r="C225">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226">
-        <v>0.03</v>
-      </c>
-      <c r="B226">
-        <v>0.09</v>
-      </c>
-      <c r="C226">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227">
-        <v>0.12</v>
-      </c>
-      <c r="B227">
-        <v>0.08</v>
-      </c>
-      <c r="C227">
-        <v>0.11600000000000001</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>0.05</v>
-      </c>
-      <c r="B228">
-        <v>-0.02</v>
-      </c>
-      <c r="C228">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>0.15</v>
-      </c>
-      <c r="B229">
-        <v>0</v>
-      </c>
-      <c r="C229">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230">
-        <v>0.23</v>
-      </c>
-      <c r="B230">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C230">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>0.33</v>
-      </c>
-      <c r="B231">
-        <v>0.16</v>
-      </c>
-      <c r="C231">
-        <v>0.376</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>0.36</v>
-      </c>
-      <c r="B232">
-        <v>0.23</v>
-      </c>
-      <c r="C232">
-        <v>0.51600000000000001</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="B233">
-        <v>0.5</v>
-      </c>
-      <c r="C233">
-        <v>0.63600000000000001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>0.33</v>
-      </c>
-      <c r="B234">
-        <v>0.6</v>
-      </c>
-      <c r="C234">
-        <v>0.66600000000000004</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235">
-        <v>0.35</v>
-      </c>
-      <c r="B235">
-        <v>0.68</v>
-      </c>
-      <c r="C235">
-        <v>0.75600000000000001</v>
       </c>
     </row>
   </sheetData>
